--- a/du_lieu/data.xlsx
+++ b/du_lieu/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Appium\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Appium\du_lieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EB8DB1-D137-4D59-8FEE-2687A06574F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773CCCF-0D1C-441F-983D-977BBF7159E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -39,7 +39,16 @@
     <t>ma2</t>
   </si>
   <si>
-    <t>ma3</t>
+    <t>ma4</t>
+  </si>
+  <si>
+    <t>na5</t>
+  </si>
+  <si>
+    <t>na6</t>
+  </si>
+  <si>
+    <t>ok1</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,6 +403,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>0</v>

--- a/du_lieu/data.xlsx
+++ b/du_lieu/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Appium\du_lieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773CCCF-0D1C-441F-983D-977BBF7159E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18B8E9-9E83-48A2-A127-43DA77975356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -37,18 +37,6 @@
   </si>
   <si>
     <t>ma2</t>
-  </si>
-  <si>
-    <t>ma4</t>
-  </si>
-  <si>
-    <t>na5</t>
-  </si>
-  <si>
-    <t>na6</t>
-  </si>
-  <si>
-    <t>ok1</t>
   </si>
 </sst>
 </file>
@@ -372,7 +360,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,26 +386,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>0</v>

--- a/du_lieu/data.xlsx
+++ b/du_lieu/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\Appium\du_lieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C18B8E9-9E83-48A2-A127-43DA77975356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EBEDA3-78A3-4880-8D9C-1D5CD06A4E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -33,10 +33,16 @@
     <t>Mã khách hàng</t>
   </si>
   <si>
-    <t>ma1</t>
-  </si>
-  <si>
-    <t>ma2</t>
+    <t>PD29007350798</t>
+  </si>
+  <si>
+    <t>PD29007351257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD29007383613 </t>
+  </si>
+  <si>
+    <t>PD29007351375</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A4:A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,6 +392,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>0</v>
@@ -393,5 +409,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>